--- a/data/final/hasil_ramalan.xlsx
+++ b/data/final/hasil_ramalan.xlsx
@@ -465,10 +465,10 @@
         <v>1419611</v>
       </c>
       <c r="C2" t="n">
-        <v>1396232.772947306</v>
+        <v>1262063.838973787</v>
       </c>
       <c r="D2" t="n">
-        <v>1.65</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>1295180</v>
       </c>
       <c r="C3" t="n">
-        <v>1055095.459698444</v>
+        <v>964321.3064194188</v>
       </c>
       <c r="D3" t="n">
-        <v>18.54</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>1452671</v>
       </c>
       <c r="C4" t="n">
-        <v>1301151.28986327</v>
+        <v>1193751.758753773</v>
       </c>
       <c r="D4" t="n">
-        <v>10.43</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>1490809</v>
       </c>
       <c r="C5" t="n">
-        <v>1351697.662128884</v>
+        <v>1248133.87188437</v>
       </c>
       <c r="D5" t="n">
-        <v>9.33</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>1645124</v>
       </c>
       <c r="C6" t="n">
-        <v>1397325.668357171</v>
+        <v>1302833.059036067</v>
       </c>
       <c r="D6" t="n">
-        <v>15.06</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>1608563</v>
       </c>
       <c r="C7" t="n">
-        <v>1457876.616821432</v>
+        <v>1353761.988829426</v>
       </c>
       <c r="D7" t="n">
-        <v>9.369999999999999</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>1737637</v>
       </c>
       <c r="C8" t="n">
-        <v>1753361.618389411</v>
+        <v>1651191.757706761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>1525937</v>
       </c>
       <c r="C9" t="n">
-        <v>1683835.71047153</v>
+        <v>1599110.401830264</v>
       </c>
       <c r="D9" t="n">
-        <v>10.35</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>1468845</v>
       </c>
       <c r="C10" t="n">
-        <v>1620968.784867494</v>
+        <v>1543155.904034593</v>
       </c>
       <c r="D10" t="n">
-        <v>10.36</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>1582366</v>
       </c>
       <c r="C11" t="n">
-        <v>1570267.602886624</v>
+        <v>1500146.399035489</v>
       </c>
       <c r="D11" t="n">
-        <v>0.76</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>1599568</v>
       </c>
       <c r="C12" t="n">
-        <v>1900609.202052313</v>
+        <v>1821369.644991131</v>
       </c>
       <c r="D12" t="n">
-        <v>18.82</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>1712363</v>
       </c>
       <c r="C13" t="n">
-        <v>2063291.067646578</v>
+        <v>1982382.337848677</v>
       </c>
       <c r="D13" t="n">
-        <v>20.49</v>
+        <v>15.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/final/hasil_ramalan.xlsx
+++ b/data/final/hasil_ramalan.xlsx
@@ -465,10 +465,10 @@
         <v>1419611</v>
       </c>
       <c r="C2" t="n">
-        <v>1262063.838973787</v>
+        <v>1769586.620153761</v>
       </c>
       <c r="D2" t="n">
-        <v>11.1</v>
+        <v>24.65</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>1295180</v>
       </c>
       <c r="C3" t="n">
-        <v>964321.3064194188</v>
+        <v>1286352.542208497</v>
       </c>
       <c r="D3" t="n">
-        <v>25.55</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>1452671</v>
       </c>
       <c r="C4" t="n">
-        <v>1193751.758753773</v>
+        <v>1523757.298599252</v>
       </c>
       <c r="D4" t="n">
-        <v>17.82</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>1490809</v>
       </c>
       <c r="C5" t="n">
-        <v>1248133.87188437</v>
+        <v>1519604.471089032</v>
       </c>
       <c r="D5" t="n">
-        <v>16.28</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>1645124</v>
       </c>
       <c r="C6" t="n">
-        <v>1302833.059036067</v>
+        <v>1521686.892295002</v>
       </c>
       <c r="D6" t="n">
-        <v>20.81</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>1608563</v>
       </c>
       <c r="C7" t="n">
-        <v>1353761.988829426</v>
+        <v>1508930.154739787</v>
       </c>
       <c r="D7" t="n">
-        <v>15.84</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>1737637</v>
       </c>
       <c r="C8" t="n">
-        <v>1651191.757706761</v>
+        <v>1743257.767011346</v>
       </c>
       <c r="D8" t="n">
-        <v>4.97</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>1525937</v>
       </c>
       <c r="C9" t="n">
-        <v>1599110.401830264</v>
+        <v>1612212.579567042</v>
       </c>
       <c r="D9" t="n">
-        <v>4.8</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>1468845</v>
       </c>
       <c r="C10" t="n">
-        <v>1543155.904034593</v>
+        <v>1518050.112540226</v>
       </c>
       <c r="D10" t="n">
-        <v>5.06</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>1582366</v>
       </c>
       <c r="C11" t="n">
-        <v>1500146.399035489</v>
+        <v>1439632.572841382</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>1599568</v>
       </c>
       <c r="C12" t="n">
-        <v>1821369.644991131</v>
+        <v>1693966.078938358</v>
       </c>
       <c r="D12" t="n">
-        <v>13.87</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>1712363</v>
       </c>
       <c r="C13" t="n">
-        <v>1982382.337848677</v>
+        <v>1774062.774038541</v>
       </c>
       <c r="D13" t="n">
-        <v>15.77</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/final/hasil_ramalan.xlsx
+++ b/data/final/hasil_ramalan.xlsx
@@ -465,10 +465,10 @@
         <v>1419611</v>
       </c>
       <c r="C2" t="n">
-        <v>1769586.620153761</v>
+        <v>1292942.260654579</v>
       </c>
       <c r="D2" t="n">
-        <v>24.65</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>1295180</v>
       </c>
       <c r="C3" t="n">
-        <v>1286352.542208497</v>
+        <v>973283.5604662807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.68</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>1452671</v>
       </c>
       <c r="C4" t="n">
-        <v>1523757.298599252</v>
+        <v>1157468.434025778</v>
       </c>
       <c r="D4" t="n">
-        <v>4.89</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>1490809</v>
       </c>
       <c r="C5" t="n">
-        <v>1519604.471089032</v>
+        <v>1170285.655664601</v>
       </c>
       <c r="D5" t="n">
-        <v>1.93</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>1645124</v>
       </c>
       <c r="C6" t="n">
-        <v>1521686.892295002</v>
+        <v>1195366.12418472</v>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>1608563</v>
       </c>
       <c r="C7" t="n">
-        <v>1508930.154739787</v>
+        <v>1193387.553276766</v>
       </c>
       <c r="D7" t="n">
-        <v>6.19</v>
+        <v>25.81</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>1737637</v>
       </c>
       <c r="C8" t="n">
-        <v>1743257.767011346</v>
+        <v>1436101.745550943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.32</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>1525937</v>
       </c>
       <c r="C9" t="n">
-        <v>1612212.579567042</v>
+        <v>1389146.382594871</v>
       </c>
       <c r="D9" t="n">
-        <v>5.65</v>
+        <v>8.960000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>1468845</v>
       </c>
       <c r="C10" t="n">
-        <v>1518050.112540226</v>
+        <v>1303283.516578114</v>
       </c>
       <c r="D10" t="n">
-        <v>3.35</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>1582366</v>
       </c>
       <c r="C11" t="n">
-        <v>1439632.572841382</v>
+        <v>1230567.953170218</v>
       </c>
       <c r="D11" t="n">
-        <v>9.02</v>
+        <v>22.23</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>1599568</v>
       </c>
       <c r="C12" t="n">
-        <v>1693966.078938358</v>
+        <v>1458054.10407287</v>
       </c>
       <c r="D12" t="n">
-        <v>5.9</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>1712363</v>
       </c>
       <c r="C13" t="n">
-        <v>1774062.774038541</v>
+        <v>1553273.376278435</v>
       </c>
       <c r="D13" t="n">
-        <v>3.6</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/final/hasil_ramalan.xlsx
+++ b/data/final/hasil_ramalan.xlsx
@@ -465,10 +465,10 @@
         <v>1419611</v>
       </c>
       <c r="C2" t="n">
-        <v>1292942.260654579</v>
+        <v>1732702.841831064</v>
       </c>
       <c r="D2" t="n">
-        <v>8.92</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>1295180</v>
       </c>
       <c r="C3" t="n">
-        <v>973283.5604662807</v>
+        <v>1256633.010224799</v>
       </c>
       <c r="D3" t="n">
-        <v>24.85</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>1452671</v>
       </c>
       <c r="C4" t="n">
-        <v>1157468.434025778</v>
+        <v>1488166.781718394</v>
       </c>
       <c r="D4" t="n">
-        <v>20.32</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>1490809</v>
       </c>
       <c r="C5" t="n">
-        <v>1170285.655664601</v>
+        <v>1483777.195629336</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>1645124</v>
       </c>
       <c r="C6" t="n">
-        <v>1195366.12418472</v>
+        <v>1483142.776106046</v>
       </c>
       <c r="D6" t="n">
-        <v>27.34</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>1608563</v>
       </c>
       <c r="C7" t="n">
-        <v>1193387.553276766</v>
+        <v>1473560.337515869</v>
       </c>
       <c r="D7" t="n">
-        <v>25.81</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>1737637</v>
       </c>
       <c r="C8" t="n">
-        <v>1436101.745550943</v>
+        <v>1701009.622485693</v>
       </c>
       <c r="D8" t="n">
-        <v>17.35</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>1525937</v>
       </c>
       <c r="C9" t="n">
-        <v>1389146.382594871</v>
+        <v>1570359.390663379</v>
       </c>
       <c r="D9" t="n">
-        <v>8.960000000000001</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>1468845</v>
       </c>
       <c r="C10" t="n">
-        <v>1303283.516578114</v>
+        <v>1475713.114837798</v>
       </c>
       <c r="D10" t="n">
-        <v>11.27</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>1582366</v>
       </c>
       <c r="C11" t="n">
-        <v>1230567.953170218</v>
+        <v>1397265.838592014</v>
       </c>
       <c r="D11" t="n">
-        <v>22.23</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>1599568</v>
       </c>
       <c r="C12" t="n">
-        <v>1458054.10407287</v>
+        <v>1642660.935637087</v>
       </c>
       <c r="D12" t="n">
-        <v>8.85</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>1712363</v>
       </c>
       <c r="C13" t="n">
-        <v>1553273.376278435</v>
+        <v>1720233.273298219</v>
       </c>
       <c r="D13" t="n">
-        <v>9.289999999999999</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
